--- a/spotify_project/model/data/recommendation.xlsx
+++ b/spotify_project/model/data/recommendation.xlsx
@@ -642,25 +642,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.7992</v>
+        <v>0.7584</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02849329205366357</v>
+        <v>0.04461300309597524</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4464</v>
+        <v>0.3516</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02142199421569568</v>
+        <v>0.04724208871373237</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9916279069767443</v>
+        <v>0.983688043222927</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6224006620481706</v>
+        <v>0.6762461540982666</v>
       </c>
       <c r="G2" t="n">
-        <v>0.638</v>
+        <v>0.55</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -756,40 +756,40 @@
         <v>4</v>
       </c>
       <c r="AM2" t="n">
-        <v>23515</v>
+        <v>143231</v>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>Brighter!</t>
+          <t>This Must Be the Place (Naive Melody)</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>['Cass McCombs']</t>
+          <t>['The String Cheese Incident']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.7584</v>
+        <v>0.7992</v>
       </c>
       <c r="B3" t="n">
-        <v>0.04461300309597524</v>
+        <v>0.02849329205366357</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3516</v>
+        <v>0.4464</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04724208871373237</v>
+        <v>0.02142199421569568</v>
       </c>
       <c r="E3" t="n">
-        <v>0.983688043222927</v>
+        <v>0.9916279069767443</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6762461540982666</v>
+        <v>0.6224006620481706</v>
       </c>
       <c r="G3" t="n">
-        <v>0.55</v>
+        <v>0.638</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -885,16 +885,16 @@
         <v>4</v>
       </c>
       <c r="AM3" t="n">
-        <v>143231</v>
+        <v>23515</v>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>This Must Be the Place (Naive Melody)</t>
+          <t>Brighter!</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>['The String Cheese Incident']</t>
+          <t>['Cass McCombs']</t>
         </is>
       </c>
     </row>
@@ -15864,25 +15864,25 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.2952</v>
+        <v>0.444</v>
       </c>
       <c r="B120" t="n">
-        <v>0.06845201238390093</v>
+        <v>0.04597523219814243</v>
       </c>
       <c r="C120" t="n">
-        <v>0.9803999999999999</v>
+        <v>0.5544</v>
       </c>
       <c r="D120" t="n">
-        <v>0.01394168500247896</v>
+        <v>0.0209341479626598</v>
       </c>
       <c r="E120" t="n">
-        <v>0.7763354474982382</v>
+        <v>1.098327460653042</v>
       </c>
       <c r="F120" t="n">
-        <v>0.802336833394103</v>
+        <v>0.6480214346288884</v>
       </c>
       <c r="G120" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.517</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -15978,40 +15978,40 @@
         <v>4</v>
       </c>
       <c r="AM120" t="n">
-        <v>31918</v>
+        <v>23232</v>
       </c>
       <c r="AN120" t="inlineStr">
         <is>
-          <t>I'm Drunk And Confused</t>
+          <t>Sun Was High (So Was I)</t>
         </is>
       </c>
       <c r="AO120" t="inlineStr">
         <is>
-          <t>['sagun']</t>
+          <t>['Small Black']</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.444</v>
+        <v>0.2952</v>
       </c>
       <c r="B121" t="n">
-        <v>0.04597523219814243</v>
+        <v>0.06845201238390093</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5544</v>
+        <v>0.9803999999999999</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0209341479626598</v>
+        <v>0.01394168500247896</v>
       </c>
       <c r="E121" t="n">
-        <v>1.098327460653042</v>
+        <v>0.7763354474982382</v>
       </c>
       <c r="F121" t="n">
-        <v>0.6480214346288884</v>
+        <v>0.802336833394103</v>
       </c>
       <c r="G121" t="n">
-        <v>0.517</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -16107,16 +16107,16 @@
         <v>4</v>
       </c>
       <c r="AM121" t="n">
-        <v>23232</v>
+        <v>31918</v>
       </c>
       <c r="AN121" t="inlineStr">
         <is>
-          <t>Sun Was High (So Was I)</t>
+          <t>I'm Drunk And Confused</t>
         </is>
       </c>
       <c r="AO121" t="inlineStr">
         <is>
-          <t>['Small Black']</t>
+          <t>['sagun']</t>
         </is>
       </c>
     </row>
@@ -17154,25 +17154,25 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.474</v>
+        <v>0.4644</v>
       </c>
       <c r="B130" t="n">
-        <v>0.04291021671826625</v>
+        <v>0.1203302373581011</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0001992</v>
+        <v>1.98e-06</v>
       </c>
       <c r="D130" t="n">
-        <v>0.02597642704730501</v>
+        <v>0.02551574496063136</v>
       </c>
       <c r="E130" t="n">
-        <v>1.086560175397385</v>
+        <v>1.100689061154178</v>
       </c>
       <c r="F130" t="n">
-        <v>0.491922274889283</v>
+        <v>0.5523120475560345</v>
       </c>
       <c r="G130" t="n">
-        <v>0.5720000000000001</v>
+        <v>0.484</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -17268,40 +17268,40 @@
         <v>4</v>
       </c>
       <c r="AM130" t="n">
-        <v>54850</v>
+        <v>47097</v>
       </c>
       <c r="AN130" t="inlineStr">
         <is>
-          <t>Born To Die</t>
+          <t>I Like The View</t>
         </is>
       </c>
       <c r="AO130" t="inlineStr">
         <is>
-          <t>['Lana Del Rey']</t>
+          <t>['Lil Wayne']</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.4644</v>
+        <v>0.474</v>
       </c>
       <c r="B131" t="n">
-        <v>0.1203302373581011</v>
+        <v>0.04291021671826625</v>
       </c>
       <c r="C131" t="n">
-        <v>1.98e-06</v>
+        <v>0.0001992</v>
       </c>
       <c r="D131" t="n">
-        <v>0.02551574496063136</v>
+        <v>0.02597642704730501</v>
       </c>
       <c r="E131" t="n">
-        <v>1.100689061154178</v>
+        <v>1.086560175397385</v>
       </c>
       <c r="F131" t="n">
-        <v>0.5523120475560345</v>
+        <v>0.491922274889283</v>
       </c>
       <c r="G131" t="n">
-        <v>0.484</v>
+        <v>0.5720000000000001</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -17397,16 +17397,16 @@
         <v>4</v>
       </c>
       <c r="AM131" t="n">
-        <v>47097</v>
+        <v>54850</v>
       </c>
       <c r="AN131" t="inlineStr">
         <is>
-          <t>I Like The View</t>
+          <t>Born To Die</t>
         </is>
       </c>
       <c r="AO131" t="inlineStr">
         <is>
-          <t>['Lil Wayne']</t>
+          <t>['Lana Del Rey']</t>
         </is>
       </c>
     </row>
@@ -20895,25 +20895,25 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.6048</v>
+        <v>0.6995999999999999</v>
       </c>
       <c r="B159" t="n">
-        <v>0.04711042311661507</v>
+        <v>0.04824561403508773</v>
       </c>
       <c r="C159" t="n">
-        <v>0.04692</v>
+        <v>0</v>
       </c>
       <c r="D159" t="n">
-        <v>0.0251818289836481</v>
+        <v>0.01925625251661218</v>
       </c>
       <c r="E159" t="n">
-        <v>1.062883094511001</v>
+        <v>1.109015738783181</v>
       </c>
       <c r="F159" t="n">
-        <v>0.487219110905359</v>
+        <v>0.619148596220262</v>
       </c>
       <c r="G159" t="n">
-        <v>0.759</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="H159" t="n">
         <v>1</v>
@@ -21009,16 +21009,16 @@
         <v>4</v>
       </c>
       <c r="AM159" t="n">
-        <v>125219</v>
+        <v>8806</v>
       </c>
       <c r="AN159" t="inlineStr">
         <is>
-          <t>The Look</t>
+          <t>Can't Feel My Face</t>
         </is>
       </c>
       <c r="AO159" t="inlineStr">
         <is>
-          <t>['Metronomy']</t>
+          <t>The Weeknd</t>
         </is>
       </c>
     </row>
@@ -31473,25 +31473,25 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0.6252</v>
+        <v>0.9107999999999999</v>
       </c>
       <c r="B241" t="n">
-        <v>0.03893704850361197</v>
+        <v>0.05902992776057792</v>
       </c>
       <c r="C241" t="n">
-        <v>0.001488</v>
+        <v>2.748e-06</v>
       </c>
       <c r="D241" t="n">
-        <v>0.01875851998534244</v>
+        <v>0.01598056819674839</v>
       </c>
       <c r="E241" t="n">
-        <v>1.08318064364576</v>
+        <v>1.108710359408034</v>
       </c>
       <c r="F241" t="n">
-        <v>0.6019763121131053</v>
+        <v>0.6080215985021978</v>
       </c>
       <c r="G241" t="n">
-        <v>0.528</v>
+        <v>0.517</v>
       </c>
       <c r="H241" t="n">
         <v>1</v>
@@ -31587,16 +31587,16 @@
         <v>4</v>
       </c>
       <c r="AM241" t="n">
-        <v>23153</v>
+        <v>168848</v>
       </c>
       <c r="AN241" t="inlineStr">
         <is>
-          <t>Obsessions</t>
+          <t>Move</t>
         </is>
       </c>
       <c r="AO241" t="inlineStr">
         <is>
-          <t>['MARINA']</t>
+          <t>['MercyMe']</t>
         </is>
       </c>
     </row>
@@ -32763,25 +32763,25 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>0.8987999999999999</v>
+        <v>1.1556</v>
       </c>
       <c r="B251" t="n">
-        <v>0.3734778121775026</v>
+        <v>0.06266253869969041</v>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>4.596e-05</v>
       </c>
       <c r="D251" t="n">
-        <v>0.02259726018891846</v>
+        <v>0.01774217362485104</v>
       </c>
       <c r="E251" t="n">
-        <v>1.058546707383917</v>
+        <v>1.135807689296061</v>
       </c>
       <c r="F251" t="n">
-        <v>1.029602894002646</v>
+        <v>1.124125018947851</v>
       </c>
       <c r="G251" t="n">
-        <v>0.7040000000000001</v>
+        <v>0.6160000000000001</v>
       </c>
       <c r="H251" t="n">
         <v>1</v>
@@ -32877,16 +32877,16 @@
         <v>4</v>
       </c>
       <c r="AM251" t="n">
-        <v>125412</v>
+        <v>39630</v>
       </c>
       <c r="AN251" t="inlineStr">
         <is>
-          <t>Mayor que yo</t>
+          <t>La Bala</t>
         </is>
       </c>
       <c r="AO251" t="inlineStr">
         <is>
-          <t>['Tonny Tun Tun', 'Daddy Yankee', 'Wisin &amp; Yandel']</t>
+          <t>['Los Tigres Del Norte']</t>
         </is>
       </c>
     </row>
@@ -42309,25 +42309,25 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>0.114</v>
+        <v>0.1368</v>
       </c>
       <c r="B325" t="n">
-        <v>0.04007223942208463</v>
+        <v>0.04813209494324047</v>
       </c>
       <c r="C325" t="n">
-        <v>0.7944</v>
+        <v>1.122</v>
       </c>
       <c r="D325" t="n">
-        <v>0.01546370987487668</v>
+        <v>0.02310977593997717</v>
       </c>
       <c r="E325" t="n">
-        <v>1.068563150888732</v>
+        <v>0.7587048782397618</v>
       </c>
       <c r="F325" t="n">
-        <v>0.3200847225010344</v>
+        <v>0.4318078093825664</v>
       </c>
       <c r="G325" t="n">
-        <v>0.649</v>
+        <v>0.5720000000000001</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -42423,16 +42423,16 @@
         <v>9</v>
       </c>
       <c r="AM325" t="n">
-        <v>31662</v>
+        <v>69667</v>
       </c>
       <c r="AN325" t="inlineStr">
         <is>
-          <t>Acid Rain</t>
+          <t>One Day I'll Fly Away</t>
         </is>
       </c>
       <c r="AO325" t="inlineStr">
         <is>
-          <t>['Lorn']</t>
+          <t>['Keith Jarrett', 'Charlie Haden']</t>
         </is>
       </c>
     </row>
@@ -45792,25 +45792,25 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>0.5244</v>
+        <v>0.4908</v>
       </c>
       <c r="B352" t="n">
-        <v>0.0365531475748194</v>
+        <v>0.08389060887512899</v>
       </c>
       <c r="C352" t="n">
-        <v>1.284e-05</v>
+        <v>6.54e-06</v>
       </c>
       <c r="D352" t="n">
-        <v>0.01752911046964256</v>
+        <v>0.03231473253182411</v>
       </c>
       <c r="E352" t="n">
-        <v>1.056449769007908</v>
+        <v>1.102948868530264</v>
       </c>
       <c r="F352" t="n">
-        <v>0.4185586523059024</v>
+        <v>0.4607953591078737</v>
       </c>
       <c r="G352" t="n">
-        <v>0.7150000000000001</v>
+        <v>0.627</v>
       </c>
       <c r="H352" t="n">
         <v>0</v>
@@ -45906,40 +45906,40 @@
         <v>5</v>
       </c>
       <c r="AM352" t="n">
-        <v>116283</v>
+        <v>152351</v>
       </c>
       <c r="AN352" t="inlineStr">
         <is>
-          <t>Up There</t>
+          <t>Break The Bank</t>
         </is>
       </c>
       <c r="AO352" t="inlineStr">
         <is>
-          <t>['Post Malone']</t>
+          <t>['ScHoolboy Q']</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>0.4908</v>
+        <v>0.5244</v>
       </c>
       <c r="B353" t="n">
-        <v>0.08389060887512899</v>
+        <v>0.0365531475748194</v>
       </c>
       <c r="C353" t="n">
-        <v>6.54e-06</v>
+        <v>1.284e-05</v>
       </c>
       <c r="D353" t="n">
-        <v>0.03231473253182411</v>
+        <v>0.01752911046964256</v>
       </c>
       <c r="E353" t="n">
-        <v>1.102948868530264</v>
+        <v>1.056449769007908</v>
       </c>
       <c r="F353" t="n">
-        <v>0.4607953591078737</v>
+        <v>0.4185586523059024</v>
       </c>
       <c r="G353" t="n">
-        <v>0.627</v>
+        <v>0.7150000000000001</v>
       </c>
       <c r="H353" t="n">
         <v>0</v>
@@ -46035,16 +46035,16 @@
         <v>5</v>
       </c>
       <c r="AM353" t="n">
-        <v>152351</v>
+        <v>116283</v>
       </c>
       <c r="AN353" t="inlineStr">
         <is>
-          <t>Break The Bank</t>
+          <t>Up There</t>
         </is>
       </c>
       <c r="AO353" t="inlineStr">
         <is>
-          <t>['ScHoolboy Q']</t>
+          <t>['Post Malone']</t>
         </is>
       </c>
     </row>
@@ -49404,25 +49404,25 @@
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>0.714</v>
+        <v>0.6204</v>
       </c>
       <c r="B380" t="n">
-        <v>0.03473684210526316</v>
+        <v>0.03746130030959753</v>
       </c>
       <c r="C380" t="n">
-        <v>1.0824</v>
+        <v>0.8172</v>
       </c>
       <c r="D380" t="n">
-        <v>0.02279064318278287</v>
+        <v>0.01277344105865594</v>
       </c>
       <c r="E380" t="n">
-        <v>0.9103155586876518</v>
+        <v>0.8789429175475688</v>
       </c>
       <c r="F380" t="n">
-        <v>0.4626077979114347</v>
+        <v>0.8541748774022802</v>
       </c>
       <c r="G380" t="n">
-        <v>0.6160000000000001</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="H380" t="n">
         <v>0</v>
@@ -49518,16 +49518,16 @@
         <v>6</v>
       </c>
       <c r="AM380" t="n">
-        <v>47496</v>
+        <v>55432</v>
       </c>
       <c r="AN380" t="inlineStr">
         <is>
-          <t>Zionsville</t>
+          <t>forget her</t>
         </is>
       </c>
       <c r="AO380" t="inlineStr">
         <is>
-          <t>['Khruangbin']</t>
+          <t>['girl in red']</t>
         </is>
       </c>
     </row>
